--- a/temp/problems.xlsx
+++ b/temp/problems.xlsx
@@ -14,7 +14,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+  <si>
+    <t>id problems</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>create date</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
   <si>
     <t>дима</t>
   </si>
@@ -25,18 +43,12 @@
     <t>все плохо</t>
   </si>
   <si>
+    <t>04/25/24 20:25:47</t>
+  </si>
+  <si>
     <t>Активно</t>
   </si>
   <si>
-    <t>aaaaaaaaa</t>
-  </si>
-  <si>
-    <t>wefwefewfwefwe</t>
-  </si>
-  <si>
-    <t>wefwefwefwefwefewf</t>
-  </si>
-  <si>
     <t>лиза</t>
   </si>
   <si>
@@ -46,6 +58,9 @@
     <t>я сломався....</t>
   </si>
   <si>
+    <t>04/25/24 22:27:54</t>
+  </si>
+  <si>
     <t>Лиза</t>
   </si>
   <si>
@@ -55,10 +70,25 @@
     <t>СЛОМАФСЯ</t>
   </si>
   <si>
+    <t>04/25/24 22:28:46</t>
+  </si>
+  <si>
     <t>ывапро</t>
   </si>
   <si>
     <t>фывапр</t>
+  </si>
+  <si>
+    <t>04/29/24 21:37:14</t>
+  </si>
+  <si>
+    <t>Туда то</t>
+  </si>
+  <si>
+    <t>Все сломалось</t>
+  </si>
+  <si>
+    <t>04/29/24 23:43:06</t>
   </si>
 </sst>
 </file>
@@ -390,50 +420,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>45407.85124328597</v>
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>45407.93053958611</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -441,19 +471,19 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>45407.9360503527</v>
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -461,19 +491,19 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>45407.93664873737</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -481,19 +511,39 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5">
-        <v>45411.90086322444</v>
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>3</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/temp/problems.xlsx
+++ b/temp/problems.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>id problems</t>
   </si>
@@ -34,61 +34,79 @@
     <t>status</t>
   </si>
   <si>
-    <t>дима</t>
-  </si>
-  <si>
-    <t>туда</t>
+    <t>Ккочешкова Елизавета</t>
+  </si>
+  <si>
+    <t>сюда</t>
   </si>
   <si>
     <t>все плохо</t>
   </si>
   <si>
-    <t>04/25/24 20:25:47</t>
+    <t>05/07/24 18:57:11</t>
   </si>
   <si>
     <t>Активно</t>
   </si>
   <si>
-    <t>лиза</t>
-  </si>
-  <si>
-    <t>тудааааа</t>
-  </si>
-  <si>
-    <t>я сломався....</t>
-  </si>
-  <si>
-    <t>04/25/24 22:27:54</t>
-  </si>
-  <si>
-    <t>Лиза</t>
-  </si>
-  <si>
-    <t>сюда)</t>
-  </si>
-  <si>
-    <t>СЛОМАФСЯ</t>
-  </si>
-  <si>
-    <t>04/25/24 22:28:46</t>
-  </si>
-  <si>
-    <t>ывапро</t>
-  </si>
-  <si>
-    <t>фывапр</t>
-  </si>
-  <si>
-    <t>04/29/24 21:37:14</t>
-  </si>
-  <si>
-    <t>Туда то</t>
-  </si>
-  <si>
-    <t>Все сломалось</t>
-  </si>
-  <si>
-    <t>04/29/24 23:43:06</t>
+    <t>ажаэат</t>
+  </si>
+  <si>
+    <t>хвтвовжв</t>
+  </si>
+  <si>
+    <t>затвшвта</t>
+  </si>
+  <si>
+    <t>05/07/24 18:59:31</t>
+  </si>
+  <si>
+    <t>ажаэажаэаэаэаэа</t>
+  </si>
+  <si>
+    <t>ахадплажа</t>
+  </si>
+  <si>
+    <t>эаэаэаэаэаэаз</t>
+  </si>
+  <si>
+    <t>05/07/24 19:04:56</t>
+  </si>
+  <si>
+    <t>аэажадах</t>
+  </si>
+  <si>
+    <t>дпьсгатвжо</t>
+  </si>
+  <si>
+    <t>пдазатшвьа</t>
+  </si>
+  <si>
+    <t>05/07/24 19:05:34</t>
+  </si>
+  <si>
+    <t>ажадададажаьа</t>
+  </si>
+  <si>
+    <t>азвзвтугуьжа</t>
+  </si>
+  <si>
+    <t>алажахвлвьво</t>
+  </si>
+  <si>
+    <t>05/07/24 19:05:48</t>
+  </si>
+  <si>
+    <t>жажажажаэаэаж</t>
+  </si>
+  <si>
+    <t>эаэаэаэаэ</t>
+  </si>
+  <si>
+    <t>эаэажаэажжаж</t>
+  </si>
+  <si>
+    <t>05/07/24 19:06:09</t>
   </si>
 </sst>
 </file>
@@ -420,7 +438,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,7 +486,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -488,7 +506,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -508,7 +526,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -517,10 +535,10 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -528,21 +546,41 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
         <v>10</v>
       </c>
     </row>
